--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>457896.9318625615</v>
+        <v>399383.529336755</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347745</v>
+        <v>8547013.05951393</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8612872.176815499</v>
+        <v>8673692.685730742</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327425</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.0764890109006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>52.04897529147635</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345809</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>146.8461210887086</v>
+        <v>92.73964154763135</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>21.41405905276474</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6.396723986041487</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.8461210887086</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V5" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>129.3420634549346</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>52.04897529147635</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345809</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>60.18384638439188</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.41405905276474</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>187.5255871663196</v>
+        <v>6.396723986041489</v>
       </c>
       <c r="I8" t="n">
-        <v>116.8405921356968</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409152</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>117.8436240067985</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709393</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>34.1083371873401</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>261.8173103786149</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>92.47445699814351</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969284</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>145.2477902017533</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>308.2872984606437</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>122.6981165717292</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>212.0572690432731</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>126.7498226612768</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>132.4101550285422</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>163.9892060627498</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>158.6372159046672</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>293.7847364097046</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>89.28266377778708</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>79.76470074482921</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>109.3296738389808</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414557</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>43.42242382926077</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>117.4014735002805</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>66.47975193160423</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>94.81275980261576</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>57.91073356940604</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>12.2760356033059</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,16 +2794,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>64.77203581859817</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>257.7716304668734</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>101.427323227022</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>99.55697298635634</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>28.7275922532129</v>
       </c>
       <c r="Y32" t="n">
-        <v>107.0120291964072</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>54.4580304704437</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>27.04270505825854</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>281.841801725266</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>56.22992883261711</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>218.8546041744718</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>105.0023863360929</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,7 +3599,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
         <v>18.81721868247742</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>115.842527194377</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>115.0138334144179</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3745,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>57.92518451681062</v>
+        <v>74.5568185402483</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>120.6508717676901</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>239.3348485454004</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>310.8331573064578</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>85.17289288835215</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>124.0533949789329</v>
       </c>
       <c r="G46" t="n">
-        <v>118.8376584678378</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>144.183745780776</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="C2" t="n">
-        <v>144.183745780776</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="D2" t="n">
-        <v>144.183745780776</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="E2" t="n">
-        <v>144.183745780776</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="F2" t="n">
-        <v>144.183745780776</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G2" t="n">
-        <v>144.183745780776</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>144.183745780776</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709669</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779183023</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458396</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066259</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588563</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735306</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548346</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W2" t="n">
-        <v>439.0550691137147</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X2" t="n">
-        <v>439.0550691137147</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y2" t="n">
-        <v>292.5131610218959</v>
+        <v>560.6825636487949</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.6518274448593</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>64.32241220373947</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>64.32241220373947</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>64.32241220373947</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>12.36141687342361</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L3" t="n">
-        <v>111.9554248488221</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>247.5338027825024</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>392.911462660324</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>511.1831359408227</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>586.7735145200479</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>509.310657927099</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="S3" t="n">
-        <v>509.310657927099</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="T3" t="n">
-        <v>509.310657927099</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="U3" t="n">
-        <v>509.310657927099</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="V3" t="n">
-        <v>509.310657927099</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="W3" t="n">
-        <v>509.310657927099</v>
+        <v>298.0982375934584</v>
       </c>
       <c r="X3" t="n">
-        <v>509.310657927099</v>
+        <v>108.6784525769736</v>
       </c>
       <c r="Y3" t="n">
-        <v>360.9812426859792</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>14.1259580354324</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510269</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665703</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.74768968709669</v>
+        <v>21.46338433294346</v>
       </c>
       <c r="C5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709669</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183023</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458396</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066259</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588563</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735306</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548346</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S5" t="n">
-        <v>439.0550691137147</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="T5" t="n">
-        <v>439.0550691137147</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="U5" t="n">
-        <v>439.0550691137147</v>
+        <v>210.8831693494283</v>
       </c>
       <c r="V5" t="n">
-        <v>290.7256538725949</v>
+        <v>210.8831693494283</v>
       </c>
       <c r="W5" t="n">
-        <v>142.396238631475</v>
+        <v>210.8831693494283</v>
       </c>
       <c r="X5" t="n">
-        <v>11.74768968709669</v>
+        <v>210.8831693494283</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.74768968709669</v>
+        <v>21.46338433294346</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>212.6518274448593</v>
+        <v>310.4710146076719</v>
       </c>
       <c r="C6" t="n">
-        <v>64.32241220373947</v>
+        <v>310.4710146076719</v>
       </c>
       <c r="D6" t="n">
-        <v>64.32241220373947</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="E6" t="n">
-        <v>64.32241220373947</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F6" t="n">
-        <v>64.32241220373947</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G6" t="n">
-        <v>64.32241220373947</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>12.97238670821021</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5663946836087</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>248.144772617289</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N6" t="n">
-        <v>393.5224324951106</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O6" t="n">
-        <v>511.7941057756093</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P6" t="n">
-        <v>587.3844843548345</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R6" t="n">
-        <v>509.310657927099</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S6" t="n">
-        <v>360.9812426859792</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T6" t="n">
-        <v>360.9812426859792</v>
+        <v>689.3105846406415</v>
       </c>
       <c r="U6" t="n">
-        <v>360.9812426859792</v>
+        <v>689.3105846406415</v>
       </c>
       <c r="V6" t="n">
-        <v>360.9812426859792</v>
+        <v>689.3105846406415</v>
       </c>
       <c r="W6" t="n">
-        <v>360.9812426859792</v>
+        <v>689.3105846406415</v>
       </c>
       <c r="X6" t="n">
-        <v>360.9812426859792</v>
+        <v>499.8907996241567</v>
       </c>
       <c r="Y6" t="n">
-        <v>360.9812426859792</v>
+        <v>310.4710146076719</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>14.1259580354324</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510269</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665703</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R7" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>322.4426321268576</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="C8" t="n">
-        <v>322.4426321268576</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="D8" t="n">
-        <v>322.4426321268576</v>
+        <v>400.302954365913</v>
       </c>
       <c r="E8" t="n">
-        <v>322.4426321268576</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="F8" t="n">
-        <v>322.4426321268576</v>
+        <v>21.46338433294346</v>
       </c>
       <c r="G8" t="n">
-        <v>322.4426321268576</v>
+        <v>21.46338433294346</v>
       </c>
       <c r="H8" t="n">
-        <v>133.0228471103731</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
         <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R8" t="n">
-        <v>672.2420264262241</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S8" t="n">
-        <v>511.8624171433421</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="T8" t="n">
-        <v>511.8624171433421</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="U8" t="n">
-        <v>511.8624171433421</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="V8" t="n">
-        <v>511.8624171433421</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="W8" t="n">
-        <v>511.8624171433421</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="X8" t="n">
-        <v>511.8624171433421</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="Y8" t="n">
-        <v>511.8624171433421</v>
+        <v>589.7227393823978</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>631.0683850220478</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C9" t="n">
-        <v>631.0683850220478</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>482.1339753607966</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>322.8965203553411</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546593</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652786</v>
+        <v>583.26140202276</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652786</v>
+        <v>583.26140202276</v>
       </c>
       <c r="V9" t="n">
-        <v>631.0683850220478</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="W9" t="n">
-        <v>631.0683850220478</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="X9" t="n">
-        <v>631.0683850220478</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="Y9" t="n">
-        <v>631.0683850220478</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>741.9599508971596</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>330.9740461075521</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>330.9740461075521</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5074,19 +5074,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>3215.315153136266</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5232,19 +5232,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181849</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181849</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>869.0763550278973</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>510.8106564211468</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5302,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520487</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.936093944079</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W14" t="n">
-        <v>2345.167438673965</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X14" t="n">
-        <v>2345.167438673965</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y14" t="n">
-        <v>2345.167438673965</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181849</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181849</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
         <v>332.3555681596505</v>
@@ -5475,13 +5475,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181849</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181849</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181849</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796252</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392135</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D17" t="n">
-        <v>194.542240332463</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E17" t="n">
-        <v>66.5121164321834</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F17" t="n">
-        <v>66.5121164321834</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943747</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="18">
@@ -5576,25 +5576,25 @@
         <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>216.6287558445191</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C19" t="n">
-        <v>216.6287558445191</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D19" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E19" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U19" t="n">
-        <v>665.4108858860666</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V19" t="n">
-        <v>665.4108858860666</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W19" t="n">
-        <v>665.4108858860666</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="X19" t="n">
-        <v>437.4213349880492</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.6287558445191</v>
+        <v>666.2025176122982</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1148.130683918831</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="C20" t="n">
-        <v>779.1681669784198</v>
+        <v>1522.390776791883</v>
       </c>
       <c r="D20" t="n">
-        <v>779.1681669784198</v>
+        <v>1164.125078185133</v>
       </c>
       <c r="E20" t="n">
-        <v>779.1681669784198</v>
+        <v>778.3368255868886</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,19 +5752,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943748</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064645</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5834,13 +5834,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992584</v>
@@ -5855,16 +5855,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199866</v>
@@ -5876,7 +5876,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218342</v>
+        <v>156.696625298635</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>156.696625298635</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>156.696625298635</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>156.696625298635</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>156.696625298635</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5934,28 +5934,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T22" t="n">
-        <v>899.7166415493873</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U22" t="n">
-        <v>610.6137746750309</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V22" t="n">
-        <v>355.929286469144</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="W22" t="n">
-        <v>66.51211643218342</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="X22" t="n">
-        <v>66.51211643218342</v>
+        <v>156.696625298635</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218342</v>
+        <v>156.696625298635</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1698.50962791956</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="C23" t="n">
-        <v>1698.50962791956</v>
+        <v>1789.055335321089</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1430.789636714338</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>1045.001384116094</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>634.0154793264867</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>218.9430291714831</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
@@ -5992,7 +5992,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6019,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y23" t="n">
-        <v>1698.50962791956</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="24">
@@ -6044,55 +6044,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
         <v>2435.471302619336</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2808.199100674193</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C25" t="n">
-        <v>2808.199100674193</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D25" t="n">
-        <v>2808.199100674193</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>2808.199100674193</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.309153176283</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>2617.448119005312</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.605821609171</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V25" t="n">
-        <v>3325.605821609171</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="W25" t="n">
-        <v>3036.18865157221</v>
+        <v>185.0994634021637</v>
       </c>
       <c r="X25" t="n">
-        <v>2808.199100674193</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y25" t="n">
-        <v>2808.199100674193</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1976.204921733553</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.97538618064</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X26" t="n">
-        <v>1976.204921733553</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y26" t="n">
-        <v>1976.204921733553</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3235.775364366699</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="C28" t="n">
-        <v>3235.775364366699</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="D28" t="n">
-        <v>3177.279673892552</v>
+        <v>78.91215239511865</v>
       </c>
       <c r="E28" t="n">
-        <v>3029.366580310158</v>
+        <v>78.91215239511865</v>
       </c>
       <c r="F28" t="n">
-        <v>2882.476632812248</v>
+        <v>78.91215239511865</v>
       </c>
       <c r="G28" t="n">
-        <v>2714.773796186967</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>2568.556609404825</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>3235.775364366699</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X28" t="n">
-        <v>3235.775364366699</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y28" t="n">
-        <v>3235.775364366699</v>
+        <v>410.6772566376941</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1754.744438482647</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C29" t="n">
-        <v>1385.781921542235</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>741.9599508971601</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912083</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V29" t="n">
-        <v>2884.252265792694</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W29" t="n">
-        <v>2531.48361052258</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X29" t="n">
-        <v>2531.48361052258</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y29" t="n">
-        <v>2141.344278546768</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="30">
@@ -6539,16 +6539,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6560,10 +6560,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>631.7841389438281</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7841389438281</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D31" t="n">
-        <v>481.6674995314924</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>481.6674995314924</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>334.777552033582</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0747154083009</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U31" t="n">
-        <v>631.7841389438281</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V31" t="n">
-        <v>631.7841389438281</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W31" t="n">
-        <v>631.7841389438281</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X31" t="n">
-        <v>631.7841389438281</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="Y31" t="n">
-        <v>631.7841389438281</v>
+        <v>631.4698357812244</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1590.416669135309</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C32" t="n">
-        <v>1590.416669135309</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1232.150970528558</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6712,13 +6712,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
         <v>3266.588755052368</v>
@@ -6739,13 +6739,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919559</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y32" t="n">
-        <v>1590.416669135309</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="33">
@@ -6770,10 +6770,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
@@ -6782,10 +6782,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6797,10 +6797,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
         <v>2564.909189125856</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2695.175226737383</v>
+        <v>410.6772566376941</v>
       </c>
       <c r="C34" t="n">
-        <v>2526.239043809476</v>
+        <v>241.7410737097872</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223169</v>
+        <v>241.7410737097872</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223169</v>
+        <v>93.82798012739406</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223169</v>
+        <v>93.82798012739406</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W34" t="n">
-        <v>3325.60582160917</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X34" t="n">
-        <v>3097.616270711153</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y34" t="n">
-        <v>2876.823691567623</v>
+        <v>410.6772566376941</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2345.167438673965</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1177.259159988174</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
@@ -6940,7 +6940,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6964,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3062.830166081658</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2731.767278738087</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X35" t="n">
-        <v>2731.767278738087</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y35" t="n">
-        <v>2731.767278738087</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
         <v>66.5121164321834</v>
@@ -7122,25 +7122,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X37" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y37" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1179.52858457759</v>
+        <v>1811.579746109088</v>
       </c>
       <c r="C38" t="n">
-        <v>810.5660676371781</v>
+        <v>1442.617229168676</v>
       </c>
       <c r="D38" t="n">
-        <v>452.3003690304276</v>
+        <v>1084.351530561926</v>
       </c>
       <c r="E38" t="n">
-        <v>66.5121164321834</v>
+        <v>698.5632779636817</v>
       </c>
       <c r="F38" t="n">
-        <v>66.5121164321834</v>
+        <v>287.5773731740741</v>
       </c>
       <c r="G38" t="n">
         <v>66.5121164321834</v>
@@ -7174,10 +7174,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7201,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3013.565057492288</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>2682.502170148718</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W38" t="n">
-        <v>2329.733514878603</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X38" t="n">
-        <v>1956.267756617523</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y38" t="n">
-        <v>1566.128424641711</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064545</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2471.230932223169</v>
+        <v>478.3278112441808</v>
       </c>
       <c r="C40" t="n">
-        <v>2471.230932223169</v>
+        <v>478.3278112441808</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.230932223169</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.230932223169</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.60582160917</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.60582160917</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V40" t="n">
-        <v>3209.430232301677</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W40" t="n">
-        <v>2920.013062264717</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X40" t="n">
-        <v>2692.023511366699</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y40" t="n">
-        <v>2471.230932223169</v>
+        <v>478.3278112441808</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1238.038871968308</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C41" t="n">
-        <v>869.0763550278959</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D41" t="n">
-        <v>510.8106564211454</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="E41" t="n">
-        <v>125.0224038229012</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="F41" t="n">
-        <v>125.0224038229012</v>
+        <v>141.8220341496059</v>
       </c>
       <c r="G41" t="n">
-        <v>125.0224038229012</v>
+        <v>141.8220341496059</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2741.012457539435</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X41" t="n">
-        <v>2014.778044008241</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y41" t="n">
-        <v>1624.638712032429</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="42">
@@ -7466,70 +7466,70 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>679.1346335501037</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1346335501037</v>
+        <v>338.4983232866304</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>188.3816838742946</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3816838742946</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>188.3816838742946</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372932</v>
@@ -7596,25 +7596,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T43" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U43" t="n">
-        <v>679.1346335501037</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V43" t="n">
-        <v>679.1346335501037</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="W43" t="n">
-        <v>679.1346335501037</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="X43" t="n">
-        <v>679.1346335501037</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="Y43" t="n">
-        <v>679.1346335501037</v>
+        <v>507.4345062145372</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796265</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C44" t="n">
-        <v>552.8079389392149</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D44" t="n">
-        <v>194.5422403324644</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>194.5422403324644</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943748</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>631.4698357812244</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="C46" t="n">
-        <v>631.4698357812244</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="D46" t="n">
-        <v>481.3531963688887</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="E46" t="n">
-        <v>333.4401027864956</v>
+        <v>359.5214126321441</v>
       </c>
       <c r="F46" t="n">
-        <v>186.5501552885852</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T46" t="n">
-        <v>920.887005818185</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U46" t="n">
-        <v>920.887005818185</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V46" t="n">
-        <v>920.887005818185</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="W46" t="n">
-        <v>631.4698357812244</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="X46" t="n">
-        <v>631.4698357812244</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="Y46" t="n">
-        <v>631.4698357812244</v>
+        <v>507.4345062145372</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747719</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.157454454363</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>241.7035085656168</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328794</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880639</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>202.3948476287044</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.161449645153</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.68706256115871</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>25.86237789960711</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22637,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>93.02023710190753</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354543</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827334</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2242511465658</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.7251189095246</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8689183739243</v>
+        <v>38.338181243771</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459968</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715755</v>
       </c>
       <c r="Y3" t="n">
-        <v>58.83657468859573</v>
+        <v>112.943054229673</v>
       </c>
     </row>
     <row r="4">
@@ -22713,25 +22713,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>94.21801639213474</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818782</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3148989349955578</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,25 +22743,25 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474393</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>26.04487966482527</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.1813952927055</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>358.8761677849661</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>131.1116955327425</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328794</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880639</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
-        <v>15.26359063142547</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>214.0843260727917</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1809648714442</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V5" t="n">
-        <v>180.9061373814263</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>202.3948476287044</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>240.3890372235345</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.68706256115871</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>25.86237789960711</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2420688160423</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>49.54879674999935</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354543</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827334</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
-        <v>4.37813005785722</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>135.2257514076094</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098441</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818782</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3148989349955578</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474393</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>26.04487966482527</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.1813952927055</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971609</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.157454454363</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G8" t="n">
         <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>129.3682389399027</v>
+        <v>310.4971021201808</v>
       </c>
       <c r="I8" t="n">
-        <v>8.630724984277947</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23105,25 +23105,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846324</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>30.23706061590673</v>
       </c>
       <c r="U9" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>114.9569631426268</v>
+        <v>45.27499998310535</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715755</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098444</v>
       </c>
     </row>
     <row r="10">
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>96.39952676377793</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23202,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>34.5777033642572</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>32.79045400870552</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>277.2566436803255</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.772586778758495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>197.6259927259852</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>236.6825798705085</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>19.46496000949122</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>44.54870452689865</v>
       </c>
       <c r="D16" t="n">
-        <v>1.772586778758495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>170.6765726202075</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>255.180547410985</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>47.42182515339513</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23946,19 +23946,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>122.222632142863</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.0966257588134</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>113.0913093320068</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>76.74314448124115</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>198.5902886500596</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>274.9183408758537</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>185.2780905483397</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>122.6033844297675</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -24423,13 +24423,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>108.3081818887566</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>298.7931398394034</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>274.9183408758533</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>90.70473944880632</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>153.7497726557223</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>289.9110058020848</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>149.1044152748381</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>78.40465695491534</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>45.19804192796444</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24894,13 +24894,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,13 +24919,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>341.0035084252561</v>
       </c>
       <c r="Y32" t="n">
-        <v>279.2259094596463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>94.15744254776865</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>138.9831032007697</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>100.0885683469958</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>194.7652431262849</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>131.4871698075784</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>192.0671214789816</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>145.9927856228091</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>32.77294582383536</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25602,19 +25602,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>137.1238099094101</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>236.6825798705098</v>
+        <v>220.0509458470722</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>45.37493649133812</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,13 +25836,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.8769896602125</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>71.90068435702278</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>321.7031528533593</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>21.36765304399837</v>
       </c>
       <c r="G46" t="n">
-        <v>47.18814979119047</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26073,10 +26073,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402256.5418769754</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402256.5418769753</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337674</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.5411587493</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139242.6491112606</v>
+        <v>149975.680096304</v>
       </c>
       <c r="C2" t="n">
-        <v>139242.6491112606</v>
+        <v>149975.680096304</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.680096304</v>
+        <v>149975.6800963041</v>
       </c>
       <c r="E2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="F2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="G2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="H2" t="n">
         <v>296136.8796318745</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>296136.8796318746</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="K2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="L2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="M2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="N2" t="n">
         <v>296136.8796318744</v>
-      </c>
-      <c r="I2" t="n">
-        <v>296136.8796318747</v>
-      </c>
-      <c r="J2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="K2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="L2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="M2" t="n">
-        <v>296136.8796318744</v>
-      </c>
-      <c r="N2" t="n">
-        <v>296136.8796318746</v>
       </c>
       <c r="O2" t="n">
         <v>296136.8796318744</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751304</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074416</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336681</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613411</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904865</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678775</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1921479602628</v>
+        <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
-        <v>107.1921479602628</v>
+        <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723338</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
@@ -26438,19 +26438,19 @@
         <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
         <v>584.6469890061231</v>
@@ -26469,34 +26469,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.1197790209</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.1197790209</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26511,7 +26511,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-457239.0977908509</v>
+        <v>-510698.8849732619</v>
       </c>
       <c r="C6" t="n">
-        <v>85416.33718427943</v>
+        <v>80658.0175475835</v>
       </c>
       <c r="D6" t="n">
-        <v>49048.27572587397</v>
+        <v>80658.01754758353</v>
       </c>
       <c r="E6" t="n">
-        <v>-405888.7515521929</v>
+        <v>-409962.7469303621</v>
       </c>
       <c r="F6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="G6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="H6" t="n">
-        <v>221245.8920814749</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="I6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="J6" t="n">
-        <v>182824.485575341</v>
+        <v>168106.9519747611</v>
       </c>
       <c r="K6" t="n">
-        <v>221245.8920814755</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="L6" t="n">
-        <v>210950.2853324265</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="M6" t="n">
-        <v>60789.45021359752</v>
+        <v>56715.45483542811</v>
       </c>
       <c r="N6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="O6" t="n">
-        <v>221245.8920814749</v>
+        <v>217171.8967033053</v>
       </c>
       <c r="P6" t="n">
-        <v>221245.8920814749</v>
+        <v>217171.8967033054</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26758,10 +26758,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
@@ -26828,10 +26828,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568341</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803941</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761101</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359731</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887087</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761101</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359731</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761101</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359731</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903399</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877944</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766335</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154184</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871684</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270567</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>367.321225669551</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961053</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656776</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744496</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611125</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339632</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645457</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>138.4613654251943</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358323</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206853</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720419</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914128</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>210.3283251711234</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>140.5989153332807</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050586</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727197</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297035</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055015</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179391</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864955</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793585</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120829</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421834</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674034</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910842</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825128</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903399</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877944</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766335</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154184</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871684</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270567</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>367.321225669551</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961053</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656776</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744496</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611125</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339632</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645457</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>139.0785066724534</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358323</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206853</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>278.1878331720419</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914128</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711234</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050586</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727197</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297035</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055015</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179391</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864955</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793585</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120829</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421834</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674034</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910842</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825128</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647907</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233467</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33754,10 +33754,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043784</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718112</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729601</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744186</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040804</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6199264508352701</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>100.6000080559581</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>136.947856498667</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887086</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469684</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>76.35391775679318</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6171412472592124</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945162</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394228</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>13.6224856581357</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043784</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718112</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729601</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744186</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040804</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.237067698094463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>100.6000080559581</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>136.947856498667</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8461210887086</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469684</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679318</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945162</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394228</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>13.6224856581357</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973018</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915967</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K25" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M25" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O25" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013284</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K28" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L28" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M28" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N28" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O28" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P28" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K31" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L31" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M31" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N31" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O31" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P31" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K34" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M34" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O34" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399383.529336755</v>
+        <v>450275.6437737595</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.05951393</v>
+        <v>8636206.831769023</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8673692.685730742</v>
+        <v>8627903.240604855</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="F2" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>29.27406286320303</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>92.73964154763135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6.396723986041487</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>146.9019614358876</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.52558716632</v>
+        <v>166.7824266983284</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>60.18384638439188</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>30.28636834257771</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>36.43383855780544</v>
       </c>
       <c r="T7" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6.396723986041489</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>88.09081815943064</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>77.36042051497282</v>
       </c>
       <c r="X9" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>220.6266854036295</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>261.8173103786149</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1502,10 +1502,10 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>159.9272126974439</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.95866062610959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>145.2477902017533</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>105.2845941643057</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H15" t="n">
         <v>89.59687541851115</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>122.6981165717292</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>106.3702881104771</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212.0572690432731</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>6.632494016570779</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H18" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.4101550285422</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>203.7029035467948</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>13.6795331954275</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>293.7847364097046</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>89.28266377778708</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>256.6811857025929</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>109.3296738389808</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>240.2451530332455</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>93.35882079147999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>117.4014735002805</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>66.47975193160423</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>148.6151831671111</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>12.2760356033059</v>
+        <v>2.155902292902968</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2794,16 +2794,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>257.7716304668734</v>
+        <v>284.2365694783145</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.427323227022</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>5.151033566363757</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>41.96425921497057</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>28.7275922532129</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>27.04270505825854</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>179.6510014153916</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>281.841801725266</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>261.8861260820117</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3319,22 +3319,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>99.55697298635637</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>218.8546041744718</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>191.7041177524625</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>115.842527194377</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>59.50286836346273</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>74.5568185402483</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>133.4571451339279</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>120.6508717676901</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.8331573064578</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>223.7580339747556</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4146,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>124.0533949789329</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>23.13730849732385</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487949</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487949</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323102</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="E2" t="n">
-        <v>181.8429936158254</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>141.3070323458398</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>271.1217663066259</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>407.6508467588563</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>523.2361246735306</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487949</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487949</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487949</v>
+        <v>456.7359354104562</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>183.0820669769775</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>34.75265173585764</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>34.75265173585764</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>34.75265173585764</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>34.75265173585764</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>34.75265173585764</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>34.75265173585764</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>34.75265173585764</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024213</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>431.9158668530686</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>550.1875401335673</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264279</v>
+        <v>509.310657927099</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264279</v>
+        <v>509.310657927099</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264279</v>
+        <v>509.310657927099</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099432</v>
+        <v>509.310657927099</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099432</v>
+        <v>479.7408974592172</v>
       </c>
       <c r="W3" t="n">
-        <v>298.0982375934584</v>
+        <v>331.4114822180974</v>
       </c>
       <c r="X3" t="n">
-        <v>108.6784525769736</v>
+        <v>331.4114822180974</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>331.4114822180974</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.46338433294346</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0020469733056</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0020469733056</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0020469733056</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="F5" t="n">
-        <v>15.0020469733056</v>
+        <v>161.728413768076</v>
       </c>
       <c r="G5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>13.34259413586626</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058939</v>
+        <v>64.0811123818437</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079184</v>
+        <v>163.9284927306054</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>306.6973793432479</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123828</v>
+        <v>456.3902241803914</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020266</v>
+        <v>659.1628932295215</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652798</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652798</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="S5" t="n">
-        <v>589.7227393823979</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="T5" t="n">
-        <v>400.3029543659131</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="U5" t="n">
-        <v>210.8831693494283</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="V5" t="n">
-        <v>210.8831693494283</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="W5" t="n">
-        <v>210.8831693494283</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="X5" t="n">
-        <v>210.8831693494283</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.46338433294346</v>
+        <v>330.1955114431552</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>310.4710146076719</v>
+        <v>299.8549808430373</v>
       </c>
       <c r="C6" t="n">
-        <v>310.4710146076719</v>
+        <v>299.8549808430373</v>
       </c>
       <c r="D6" t="n">
-        <v>161.5366049464206</v>
+        <v>150.920571181786</v>
       </c>
       <c r="E6" t="n">
-        <v>161.5366049464206</v>
+        <v>150.920571181786</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0020469733056</v>
+        <v>150.920571181786</v>
       </c>
       <c r="G6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024242</v>
+        <v>33.10271968746866</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>141.2673513924122</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140246</v>
+        <v>286.8472429682663</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546604</v>
+        <v>450.6888460033936</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476351</v>
+        <v>578.3521085265269</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017064</v>
+        <v>661.4800654500998</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652798</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652798</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652798</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="T6" t="n">
-        <v>689.3105846406415</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="U6" t="n">
-        <v>689.3105846406415</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="V6" t="n">
-        <v>689.3105846406415</v>
+        <v>636.5374155381844</v>
       </c>
       <c r="W6" t="n">
-        <v>689.3105846406415</v>
+        <v>468.0703178631053</v>
       </c>
       <c r="X6" t="n">
-        <v>499.8907996241567</v>
+        <v>468.0703178631053</v>
       </c>
       <c r="Y6" t="n">
-        <v>310.4710146076719</v>
+        <v>468.0703178631053</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230176</v>
+        <v>20.64084305584014</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170716</v>
+        <v>31.59410626612414</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396334</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828987</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828987</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828987</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828987</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828987</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="T7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="U7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="V7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="W7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>589.7227393823978</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="C8" t="n">
-        <v>589.7227393823978</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D8" t="n">
-        <v>400.302954365913</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="E8" t="n">
-        <v>210.8831693494282</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F8" t="n">
-        <v>21.46338433294346</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G8" t="n">
-        <v>21.46338433294346</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
         <v>15.00204697330559</v>
@@ -4807,7 +4807,7 @@
         <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
         <v>191.8743094079184</v>
@@ -4816,40 +4816,40 @@
         <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652797</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="S8" t="n">
-        <v>589.7227393823978</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="T8" t="n">
-        <v>589.7227393823978</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="U8" t="n">
-        <v>589.7227393823978</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="V8" t="n">
-        <v>589.7227393823978</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="W8" t="n">
-        <v>589.7227393823978</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="X8" t="n">
-        <v>589.7227393823978</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y8" t="n">
-        <v>589.7227393823978</v>
+        <v>204.4218319897903</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="J9" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652797</v>
+        <v>676.9378076264275</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652797</v>
+        <v>676.9378076264275</v>
       </c>
       <c r="T9" t="n">
-        <v>583.26140202276</v>
+        <v>676.9378076264275</v>
       </c>
       <c r="U9" t="n">
-        <v>583.26140202276</v>
+        <v>487.5180226099428</v>
       </c>
       <c r="V9" t="n">
-        <v>393.8416170062752</v>
+        <v>298.0982375934582</v>
       </c>
       <c r="W9" t="n">
-        <v>393.8416170062752</v>
+        <v>219.9563986894452</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4218319897904</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296056</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
         <v>15.00204697330559</v>
@@ -4968,46 +4968,46 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1127.748203495404</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C11" t="n">
-        <v>1127.748203495404</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="D11" t="n">
-        <v>1127.748203495404</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>741.9599508971596</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>330.9740461075521</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>330.9740461075521</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5065,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535337</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y11" t="n">
-        <v>1514.348043559526</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>228.0547555205106</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596505</v>
@@ -5229,22 +5229,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U13" t="n">
-        <v>631.7841389438285</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V13" t="n">
-        <v>377.0996507379416</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W13" t="n">
-        <v>87.68248070098099</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="X13" t="n">
-        <v>87.68248070098099</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51211643218342</v>
+        <v>409.7032203507503</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1238.038871968309</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C14" t="n">
-        <v>869.0763550278973</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D14" t="n">
-        <v>510.8106564211468</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>364.0957168234162</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5302,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U14" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W14" t="n">
-        <v>2388.243802269322</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X14" t="n">
-        <v>2014.778044008242</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y14" t="n">
-        <v>1624.638712032431</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.4698357812242</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C16" t="n">
-        <v>507.5323442946291</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D16" t="n">
-        <v>507.5323442946291</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E16" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
         <v>332.3555681596505</v>
@@ -5460,28 +5460,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W16" t="n">
-        <v>631.4698357812242</v>
+        <v>541.6393785387522</v>
       </c>
       <c r="X16" t="n">
-        <v>631.4698357812242</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="Y16" t="n">
-        <v>631.4698357812242</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1594.601034732593</v>
+        <v>1624.63871203243</v>
       </c>
       <c r="C17" t="n">
-        <v>1225.638517792182</v>
+        <v>1624.63871203243</v>
       </c>
       <c r="D17" t="n">
-        <v>867.3728191854311</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>481.5845665871869</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923659</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653545</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.800296392465</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y17" t="n">
-        <v>1808.800296392465</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="18">
@@ -5585,16 +5585,16 @@
         <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>532.4548862703364</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C19" t="n">
-        <v>363.5187033424295</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D19" t="n">
-        <v>213.4020639300938</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>920.887005818185</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="U19" t="n">
-        <v>920.887005818185</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="V19" t="n">
-        <v>666.2025176122982</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="W19" t="n">
-        <v>666.2025176122982</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="X19" t="n">
-        <v>666.2025176122982</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="Y19" t="n">
-        <v>666.2025176122982</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1891.353293732295</v>
+        <v>1661.138951213862</v>
       </c>
       <c r="C20" t="n">
-        <v>1522.390776791883</v>
+        <v>1292.17643427345</v>
       </c>
       <c r="D20" t="n">
-        <v>1164.125078185133</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>778.3368255868886</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
         <v>481.5845665871869</v>
@@ -5755,7 +5755,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2277.953133796417</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X20" t="n">
-        <v>2277.953133796417</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y20" t="n">
-        <v>2277.953133796417</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="21">
@@ -5807,70 +5807,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064645</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.696625298635</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>156.696625298635</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>156.696625298635</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>156.696625298635</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>156.696625298635</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5934,28 +5934,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>639.3706644025392</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T22" t="n">
-        <v>639.3706644025392</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U22" t="n">
-        <v>639.3706644025392</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V22" t="n">
-        <v>384.6861761966524</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="W22" t="n">
-        <v>384.6861761966524</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X22" t="n">
-        <v>156.696625298635</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y22" t="n">
-        <v>156.696625298635</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2158.017852261501</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C23" t="n">
-        <v>1789.055335321089</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D23" t="n">
-        <v>1430.789636714338</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E23" t="n">
-        <v>1045.001384116094</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F23" t="n">
-        <v>634.0154793264867</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G23" t="n">
-        <v>218.9430291714831</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2884.252265792695</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W23" t="n">
-        <v>2531.48361052258</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2158.017852261501</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y23" t="n">
-        <v>2158.017852261501</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
         <v>2407.411984886741</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218342</v>
+        <v>751.950822890278</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218342</v>
+        <v>601.8341834779422</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>453.9210898955491</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>307.0311423976387</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H25" t="n">
         <v>66.51211643218342</v>
@@ -6174,25 +6174,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>474.5166334391243</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>185.0994634021637</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X25" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1175.300932605789</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C26" t="n">
-        <v>1108.149668028411</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D26" t="n">
-        <v>749.8839694216604</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E26" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6259,19 +6259,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2325.505862906802</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>1952.040104645722</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>1561.900772669911</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
         <v>66.5121164321834</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>229.0287918074544</v>
+        <v>68.68979551592378</v>
       </c>
       <c r="C28" t="n">
-        <v>229.0287918074544</v>
+        <v>68.68979551592378</v>
       </c>
       <c r="D28" t="n">
-        <v>78.91215239511865</v>
+        <v>68.68979551592378</v>
       </c>
       <c r="E28" t="n">
-        <v>78.91215239511865</v>
+        <v>68.68979551592378</v>
       </c>
       <c r="F28" t="n">
-        <v>78.91215239511865</v>
+        <v>68.68979551592378</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6414,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W28" t="n">
-        <v>631.4698357812242</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X28" t="n">
-        <v>631.4698357812242</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="Y28" t="n">
-        <v>410.6772566376941</v>
+        <v>250.3382603461635</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1127.748203495404</v>
+        <v>1881.708680670285</v>
       </c>
       <c r="C29" t="n">
-        <v>1127.748203495404</v>
+        <v>1512.746163729873</v>
       </c>
       <c r="D29" t="n">
-        <v>1127.748203495404</v>
+        <v>1154.480465123123</v>
       </c>
       <c r="E29" t="n">
-        <v>741.9599508971601</v>
+        <v>768.6922125248784</v>
       </c>
       <c r="F29" t="n">
         <v>481.5845665871869</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066532</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W29" t="n">
-        <v>2277.953133796418</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X29" t="n">
-        <v>1904.487375535338</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y29" t="n">
-        <v>1514.348043559526</v>
+        <v>2268.308520734407</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218343</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>529.0179941377679</v>
+        <v>221.8318200529674</v>
       </c>
       <c r="C31" t="n">
-        <v>529.0179941377679</v>
+        <v>221.8318200529674</v>
       </c>
       <c r="D31" t="n">
-        <v>529.0179941377679</v>
+        <v>71.71518064063167</v>
       </c>
       <c r="E31" t="n">
-        <v>381.1049005553748</v>
+        <v>71.71518064063167</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574645</v>
+        <v>71.71518064063167</v>
       </c>
       <c r="G31" t="n">
         <v>66.51211643218343</v>
@@ -6663,10 +6663,10 @@
         <v>631.4698357812244</v>
       </c>
       <c r="X31" t="n">
-        <v>631.4698357812244</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="Y31" t="n">
-        <v>631.4698357812244</v>
+        <v>403.4802848832071</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2005.586939522201</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X32" t="n">
-        <v>2395.726271498012</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y32" t="n">
-        <v>2005.586939522201</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
         <v>2407.411984886741</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>410.6772566376941</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C34" t="n">
-        <v>241.7410737097872</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D34" t="n">
-        <v>241.7410737097872</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E34" t="n">
-        <v>93.82798012739406</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>93.82798012739406</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W34" t="n">
-        <v>631.4698357812242</v>
+        <v>739.4213478228399</v>
       </c>
       <c r="X34" t="n">
-        <v>631.4698357812242</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y34" t="n">
-        <v>410.6772566376941</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1904.487375535336</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C35" t="n">
-        <v>1535.524858594925</v>
+        <v>1490.169958279062</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.259159988174</v>
+        <v>1131.904259672312</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>746.1160070740675</v>
       </c>
       <c r="F35" t="n">
         <v>481.5845665871869</v>
@@ -6937,22 +6937,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296686</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.721789066531</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W35" t="n">
-        <v>2277.953133796416</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X35" t="n">
-        <v>1904.487375535336</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y35" t="n">
-        <v>1904.487375535336</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
         <v>66.5121164321834</v>
@@ -7019,10 +7019,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7034,34 +7034,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E37" t="n">
         <v>381.1049005553748</v>
@@ -7095,52 +7095,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K37" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U37" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V37" t="n">
-        <v>920.8870058181849</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181849</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="X37" t="n">
-        <v>920.8870058181849</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.8870058181849</v>
+        <v>531.2215399677106</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1811.579746109088</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C38" t="n">
-        <v>1442.617229168676</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D38" t="n">
-        <v>1084.351530561926</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>698.5632779636817</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>287.5773731740741</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
@@ -7177,7 +7177,7 @@
         <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7192,7 +7192,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7210,16 +7210,16 @@
         <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>2961.784676410101</v>
+        <v>2768.144153427816</v>
       </c>
       <c r="W38" t="n">
-        <v>2961.784676410101</v>
+        <v>2768.144153427816</v>
       </c>
       <c r="X38" t="n">
-        <v>2588.318918149022</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y38" t="n">
-        <v>2198.17958617321</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
         <v>66.5121164321834</v>
@@ -7256,10 +7256,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7271,34 +7271,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>478.3278112441808</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C40" t="n">
-        <v>478.3278112441808</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
         <v>66.5121164321834</v>
@@ -7332,52 +7332,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K40" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T40" t="n">
-        <v>699.1203903877109</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="U40" t="n">
-        <v>699.1203903877109</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="V40" t="n">
-        <v>699.1203903877109</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="W40" t="n">
-        <v>699.1203903877109</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="X40" t="n">
-        <v>699.1203903877109</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="Y40" t="n">
-        <v>478.3278112441808</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796252</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C41" t="n">
-        <v>552.8079389392135</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>552.8079389392135</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>552.8079389392135</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>141.8220341496059</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>141.8220341496059</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180638</v>
+        <v>2400.229512818681</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919559</v>
+        <v>2026.763754557601</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943747</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>507.4345062145372</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>338.4983232866304</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>188.3816838742946</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>188.3816838742946</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>188.3816838742946</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
@@ -7596,25 +7596,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V43" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W43" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X43" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y43" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1590.514489367197</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C44" t="n">
-        <v>1221.551972426786</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.5121164321834</v>
@@ -7660,13 +7660,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7690,10 +7690,10 @@
         <v>2277.953133796416</v>
       </c>
       <c r="X44" t="n">
-        <v>1904.487375535336</v>
+        <v>2051.9349176603</v>
       </c>
       <c r="Y44" t="n">
-        <v>1904.487375535336</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.5121164321834</v>
@@ -7730,10 +7730,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>507.4345062145372</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C46" t="n">
-        <v>507.4345062145372</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D46" t="n">
-        <v>507.4345062145372</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E46" t="n">
-        <v>359.5214126321441</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
         <v>66.5121164321834</v>
@@ -7830,28 +7830,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S46" t="n">
-        <v>729.2011216450112</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T46" t="n">
-        <v>507.4345062145372</v>
+        <v>615.9996457183737</v>
       </c>
       <c r="U46" t="n">
-        <v>507.4345062145372</v>
+        <v>615.9996457183737</v>
       </c>
       <c r="V46" t="n">
-        <v>507.4345062145372</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="W46" t="n">
-        <v>507.4345062145372</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="X46" t="n">
-        <v>507.4345062145372</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="Y46" t="n">
-        <v>507.4345062145372</v>
+        <v>361.3151575124868</v>
       </c>
     </row>
   </sheetData>
@@ -22549,28 +22549,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>218.4267706822989</v>
       </c>
       <c r="D2" t="n">
-        <v>167.157454454363</v>
+        <v>207.8369205319743</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>235.0842489835532</v>
       </c>
       <c r="F2" t="n">
-        <v>241.7035085656168</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,22 +22594,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>219.8989052624785</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>19.68706256115871</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>25.86237789960711</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U3" t="n">
-        <v>38.338181243771</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>203.5265242862222</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459968</v>
+        <v>104.848862072211</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715755</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.943054229673</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22713,25 +22713,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>94.21801639213474</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,31 +22743,31 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>265.1089392838263</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>358.8761677849661</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>240.0936190433831</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>266.2676559505069</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973039</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>128.2387758071391</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666378</v>
+        <v>81.59093052713877</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>25.91829388988683</v>
+        <v>213.75811620057</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871038</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>182.4585420190847</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897336</v>
+        <v>219.4555119577252</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>60.22693649632168</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>19.00792621918458</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.4328956284632</v>
+        <v>74.8175551438276</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
-        <v>135.2257514076094</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>202.5142188068476</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>84.91255646259125</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825418</v>
+        <v>59.34653264837752</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402852</v>
+        <v>17.8453529694016</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3.210952374594825</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>22.00204076308474</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159726</v>
+        <v>71.38234319379299</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>170.9075736989967</v>
       </c>
       <c r="T7" t="n">
-        <v>171.5037272356657</v>
+        <v>223.8572548864558</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23026,19 +23026,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753915</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G8" t="n">
         <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>310.4971021201808</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
         <v>125.4713171199747</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>213.4438810562068</v>
@@ -23080,13 +23080,13 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>239.6614403107043</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510932</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23120,10 +23120,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>30.23706061590673</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377112</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310535</v>
+        <v>45.27499998310546</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>174.3345626459468</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715755</v>
+        <v>18.24739803715767</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098444</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>96.39952676377793</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23202,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23238,7 +23238,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693937</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>134.0563562170534</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>32.79045400870552</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>7.319608401183899</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23469,13 +23469,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>197.6259927259852</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>236.6825798705085</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>280.9533444917479</v>
       </c>
     </row>
     <row r="15">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>44.54870452689865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>119.3393672785601</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170.6765726202075</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>348.0505476041122</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.42182515339513</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23943,13 +23943,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>15.84604572937442</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>341.0035084252555</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>113.0913093320068</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>76.74314448124115</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>29.84181263399807</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>185.2780905483397</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.992785622808</v>
       </c>
     </row>
     <row r="24">
@@ -24366,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>72.66698746754824</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -24423,13 +24423,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>108.3081818887566</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>298.7931398394034</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>233.3151869051507</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>153.7497726557223</v>
+        <v>163.8699059661253</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>149.1044152748381</v>
+        <v>122.6394762633969</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.40465695491534</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.8747746926645</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>339.9661108572912</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>341.0035084252561</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>138.9831032007697</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>106.8719969211994</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>100.0885683469958</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>144.9899196596997</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.7439527351647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25368,10 +25368,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>152.5806703374716</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>192.0671214789816</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>136.0481407176724</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>32.77294582383536</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>160.0460809127065</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>220.0509458470722</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>215.7838235834851</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>45.37493649133812</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.90068435702278</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>145.9730667037135</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>21.36765304399837</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>196.4116407788453</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337677</v>
+        <v>402256.5418769753</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337677</v>
+        <v>417888.8482179074</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337677</v>
+        <v>433263.0758337675</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587487</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>139242.6491112606</v>
+      </c>
+      <c r="C2" t="n">
+        <v>144653.8320754294</v>
+      </c>
+      <c r="D2" t="n">
         <v>149975.680096304</v>
-      </c>
-      <c r="C2" t="n">
-        <v>149975.680096304</v>
-      </c>
-      <c r="D2" t="n">
-        <v>149975.6800963041</v>
       </c>
       <c r="E2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="F2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="G2" t="n">
         <v>296136.8796318747</v>
@@ -26334,28 +26334,28 @@
         <v>296136.8796318745</v>
       </c>
       <c r="I2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="J2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="K2" t="n">
         <v>296136.8796318746</v>
       </c>
-      <c r="J2" t="n">
-        <v>296136.8796318747</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="M2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="N2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="O2" t="n">
         <v>296136.8796318745</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>296136.8796318745</v>
-      </c>
-      <c r="M2" t="n">
-        <v>296136.8796318745</v>
-      </c>
-      <c r="N2" t="n">
-        <v>296136.8796318744</v>
-      </c>
-      <c r="O2" t="n">
-        <v>296136.8796318744</v>
-      </c>
-      <c r="P2" t="n">
-        <v>296136.8796318744</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340639</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.84085679072</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336676</v>
+        <v>627134.6436336677</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>38421.40650613402</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136697</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004427</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>160456.4418678771</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.800118072334</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>137.800118072334</v>
+        <v>122.1898065383436</v>
       </c>
       <c r="D4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
@@ -26450,10 +26450,10 @@
         <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="O4" t="n">
         <v>584.6469890061231</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161358</v>
+        <v>55335.34872138573</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26499,7 +26499,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
@@ -26508,7 +26508,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510698.8849732619</v>
+        <v>-458518.1319426713</v>
       </c>
       <c r="C6" t="n">
-        <v>80658.0175475835</v>
+        <v>64626.86678985733</v>
       </c>
       <c r="D6" t="n">
-        <v>80658.01754758353</v>
+        <v>69896.83250792391</v>
       </c>
       <c r="E6" t="n">
-        <v>-409962.7469303621</v>
+        <v>-406296.1510900095</v>
       </c>
       <c r="F6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.4925436583</v>
       </c>
       <c r="G6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436583</v>
       </c>
       <c r="H6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="I6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="J6" t="n">
-        <v>168106.9519747611</v>
+        <v>182417.0860375241</v>
       </c>
       <c r="K6" t="n">
-        <v>217171.8967033055</v>
+        <v>215707.5254415215</v>
       </c>
       <c r="L6" t="n">
-        <v>217171.8967033055</v>
+        <v>215588.5853176537</v>
       </c>
       <c r="M6" t="n">
-        <v>56715.45483542811</v>
+        <v>60382.05067578114</v>
       </c>
       <c r="N6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="O6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="P6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.4925436581</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>530.6136320241911</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>187.52558716632</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26819,7 +26819,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
@@ -26828,7 +26828,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022925</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697031</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.85630888871333</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803937</v>
+        <v>541.3067596803938</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961972</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.74316046799146</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887084</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560962006</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799146</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.8758682359723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961972</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799146</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>171.5470783449032</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.133120128740465</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>21.84581651846329</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>82.23711376326686</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>181.0459045266862</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>271.3408795762702</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>336.6223547162112</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>374.5572298056995</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>359.4067440913203</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>48.6084749336734</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>9.337733363561391</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>39.29544350367831</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>157.8011617537554</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>289.1844294531841</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>217.9420406704645</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>145.68848251351</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>70.86194882013635</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.19951633606083</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>4.600320073870108</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07508683472040444</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9568442544698528</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>8.507215280650152</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>28.77491630714794</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>67.64888879101859</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>80.12265843565285</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>43.02319711461719</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>16.67518578017006</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.088334541825733</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,31 +31515,31 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J8" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P8" t="n">
         <v>317.0679923244294</v>
@@ -31551,10 +31551,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U8" t="n">
         <v>0.1763923428061601</v>
@@ -31597,7 +31597,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
         <v>40.6178210959085</v>
@@ -31606,7 +31606,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L9" t="n">
         <v>256.1509851405032</v>
@@ -31615,7 +31615,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O9" t="n">
         <v>280.6872536292673</v>
@@ -31624,19 +31624,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S9" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O10" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32475,7 +32475,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
         <v>691.3565293623194</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>37.57267093057298</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>51.25102853128965</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>100.855939746224</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>144.2109965784267</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>129.3085326696336</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>75.51234515777054</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>8.047286428072596</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>19.95972277939636</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>147.0503955311658</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>128.9527904274074</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>83.96763325613423</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>5.706708427488479</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646077</v>
+        <v>7.371968606034216</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061152</v>
+        <v>11.0639022326101</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520826</v>
+        <v>18.73772222104901</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L9" t="n">
         <v>117.596605360629</v>
@@ -35263,16 +35263,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L37" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O37" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O40" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
